--- a/data/trans_dic/P70D_R_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P70D_R_2023-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.06736758417633613</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.05853127024210907</v>
+        <v>0.05853127024210906</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03215981602915714</v>
+        <v>0.03216670616752067</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04277015122511208</v>
+        <v>0.04260716392721878</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04298588641777557</v>
+        <v>0.04268215932054697</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07913806956170517</v>
+        <v>0.07926629514720555</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.103526389041084</v>
+        <v>0.1036661912797815</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07924883117789794</v>
+        <v>0.08183337195282017</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02226677745094759</v>
+        <v>0.02329560757501476</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04416382187528988</v>
+        <v>0.04452861613457079</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03628154063660664</v>
+        <v>0.03602325376612348</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05180433649241761</v>
+        <v>0.05386116138567339</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08478987366248927</v>
+        <v>0.08424270282223757</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0601670209483679</v>
+        <v>0.05954307850763974</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.02795073215059889</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.02699179137209977</v>
+        <v>0.02699179137209976</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01312450051212131</v>
+        <v>0.0121962858403335</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01522921523831467</v>
+        <v>0.0150411642408973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01744917121538175</v>
+        <v>0.01725192668572829</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04722199287713374</v>
+        <v>0.04491983279113939</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04970171348357885</v>
+        <v>0.04659511050877709</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04083960162009564</v>
+        <v>0.03941346093868112</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.05704894110632804</v>
+        <v>0.05704894110632803</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.07139350961270255</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03699964907089494</v>
+        <v>0.03882507079260902</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05307651698240796</v>
+        <v>0.05347198000010011</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04844824512453538</v>
+        <v>0.05062282113885219</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08375351226025951</v>
+        <v>0.08369887075676855</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09760889724505308</v>
+        <v>0.09731267827542427</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08025448440309488</v>
+        <v>0.08203131531459554</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.0423145061577257</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.0582225973795733</v>
+        <v>0.05822259737957329</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.04929762596082604</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03313889191046826</v>
+        <v>0.03349958850515361</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04881438343421735</v>
+        <v>0.04834811695000268</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04282369908875472</v>
+        <v>0.04285608396308416</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0533326645309885</v>
+        <v>0.05260029591415134</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06993599030348424</v>
+        <v>0.07093186289841805</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05685089968864356</v>
+        <v>0.05828883222682463</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11686</v>
+        <v>11689</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11758</v>
+        <v>11714</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>27438</v>
+        <v>27244</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28757</v>
+        <v>28803</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28462</v>
+        <v>28500</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>50584</v>
+        <v>52234</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13835</v>
+        <v>14475</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>19613</v>
+        <v>19775</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38656</v>
+        <v>38381</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>32189</v>
+        <v>33467</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>37656</v>
+        <v>37413</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>64105</v>
+        <v>63440</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5465</v>
+        <v>5079</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5089</v>
+        <v>5026</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13097</v>
+        <v>12949</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19664</v>
+        <v>18705</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16608</v>
+        <v>15570</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30653</v>
+        <v>29583</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18885</v>
+        <v>19817</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23484</v>
+        <v>23659</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>46165</v>
+        <v>48237</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>42749</v>
+        <v>42721</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>43188</v>
+        <v>43057</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>76472</v>
+        <v>78165</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>63347</v>
+        <v>64036</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>73009</v>
+        <v>72312</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>145909</v>
+        <v>146019</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>101948</v>
+        <v>100548</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>104599</v>
+        <v>106089</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>193702</v>
+        <v>198601</v>
       </c>
     </row>
     <row r="24">
